--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_15-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_15-33.xlsx
@@ -41,12 +41,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -59,6 +65,15 @@
     <t>18:0</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -92,6 +107,9 @@
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
+    <t>MEGAPRAZOLE 40 MG VIAL. FOR I.V. INF.</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -134,6 +152,12 @@
     <t>7759:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -141,6 +165,18 @@
   </si>
   <si>
     <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -768,11 +804,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>120.28</v>
+        <v>9.5</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -780,7 +816,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -788,13 +824,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>40</v>
+        <v>120.28</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -820,11 +856,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -846,11 +882,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -866,17 +902,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>41</v>
+        <v>47.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -884,7 +920,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -892,17 +928,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -910,7 +946,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -918,17 +954,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>55.670000000000002</v>
+        <v>85</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -944,13 +980,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -962,7 +998,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -970,13 +1006,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -988,7 +1024,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -996,17 +1032,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>90</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1014,7 +1050,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1022,13 +1058,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1040,7 +1076,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1048,17 +1084,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1066,7 +1102,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1074,17 +1110,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1092,7 +1128,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1100,17 +1136,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1118,7 +1154,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1126,13 +1162,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1144,7 +1180,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1152,17 +1188,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1170,7 +1206,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1178,17 +1214,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1196,7 +1232,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1204,17 +1240,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1222,7 +1258,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1230,17 +1266,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1256,17 +1292,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1274,7 +1310,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1282,51 +1318,233 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="K26" s="10">
-        <v>1618.4500000000001</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="11">
+    <row r="26" ht="24.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c t="s" r="B26" s="7">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c t="s" r="H26" s="8">
+        <v>44</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9">
+        <v>17</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c t="s" r="N26" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c t="s" r="B27" s="7">
         <v>45</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c t="s" r="F27" s="12">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c t="s" r="H27" s="8">
         <v>46</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c t="s" r="I27" s="14">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c t="s" r="N27" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c t="s" r="B28" s="7">
         <v>47</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c t="s" r="H28" s="8">
+        <v>48</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9">
+        <v>20</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c t="s" r="N28" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
+        <v>49</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
+        <v>50</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>24</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c t="s" r="N29" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c t="s" r="B30" s="7">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c t="s" r="H30" s="8">
+        <v>53</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9">
+        <v>15</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c t="s" r="N30" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c t="s" r="B31" s="7">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c t="s" r="H31" s="8">
+        <v>55</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9">
+        <v>24</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c t="s" r="N31" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c t="s" r="B32" s="7">
+        <v>56</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c t="s" r="H32" s="8">
+        <v>15</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9">
+        <v>20</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c t="s" r="N32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" customHeight="1">
+      <c r="K33" s="10">
+        <v>1799.4500000000001</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
+      <c t="s" r="A34" s="11">
+        <v>57</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c t="s" r="F34" s="12">
+        <v>58</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c t="s" r="I34" s="14">
+        <v>59</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="98">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1400,10 +1618,31 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:N34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
